--- a/pp_hadron/expdata/20002.xlsx
+++ b/pp_hadron/expdata/20002.xlsx
@@ -73,7 +73,7 @@
     <t>count/inel</t>
   </si>
   <si>
-    <t>mb</t>
+    <t>pb</t>
   </si>
 </sst>
 </file>
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -103,22 +103,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,16 +134,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,22 +143,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -180,7 +158,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +190,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,31 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +248,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +290,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,115 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +454,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -471,21 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +510,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -530,120 +539,111 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -652,37 +652,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,13 +1021,12 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K2" sqref="K2:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="8.4375" style="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
     <col min="12" max="14" width="12.6875"/>

--- a/pp_hadron/expdata/20002.xlsx
+++ b/pp_hadron/expdata/20002.xlsx
@@ -34,7 +34,7 @@
     <t>pt-max</t>
   </si>
   <si>
-    <t>pt</t>
+    <t>pT</t>
   </si>
   <si>
     <t>eta-min</t>
@@ -81,15 +81,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -103,24 +126,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,13 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -149,16 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,15 +173,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +209,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -233,7 +225,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +260,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,97 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,55 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,8 +460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,16 +491,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,31 +516,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -544,145 +544,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K54"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14"/>

--- a/pp_hadron/expdata/20002.xlsx
+++ b/pp_hadron/expdata/20002.xlsx
@@ -73,7 +73,7 @@
     <t>K+-</t>
   </si>
   <si>
-    <t>count/inel</t>
+    <t>dN/N_inel-dy-dpT</t>
   </si>
   <si>
     <t>pb</t>
@@ -84,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -100,59 +100,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,16 +120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,8 +136,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,31 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +257,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +371,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,85 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,67 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,17 +493,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,15 +523,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -518,171 +542,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,12 +692,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,20 +1024,20 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A54"/>
+      <selection activeCell="K2" sqref="K2:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="8.4375" style="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
     <col min="13" max="15" width="12.6875"/>
     <col min="16" max="16" width="9.8125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1090,7 +1087,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1140,7 +1137,7 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1190,7 +1187,7 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1240,7 +1237,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1290,7 +1287,7 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1340,7 +1337,7 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1390,7 +1387,7 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1440,7 +1437,7 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1490,7 +1487,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1540,7 +1537,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1590,7 +1587,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1640,7 +1637,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1690,7 +1687,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1740,7 +1737,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1790,7 +1787,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1840,7 +1837,7 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1890,7 +1887,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1940,7 +1937,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1990,7 +1987,7 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2040,7 +2037,7 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2090,7 +2087,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2140,7 +2137,7 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2190,7 +2187,7 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2240,7 +2237,7 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2290,7 +2287,7 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2340,7 +2337,7 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2390,7 +2387,7 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2440,7 +2437,7 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2490,7 +2487,7 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2540,7 +2537,7 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2590,7 +2587,7 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2640,7 +2637,7 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2690,7 +2687,7 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2740,7 +2737,7 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2790,7 +2787,7 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2840,7 +2837,7 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2890,7 +2887,7 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2929,7 +2926,7 @@
       <c r="M38" s="1">
         <v>0.002560102614</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>6.864672036e-5</v>
       </c>
       <c r="O38" s="1">
@@ -2940,7 +2937,7 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2979,7 +2976,7 @@
       <c r="M39" s="1">
         <v>0.001611411222</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="2">
         <v>5.365900112e-5</v>
       </c>
       <c r="O39" s="1">
@@ -2990,7 +2987,7 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3029,10 +3026,10 @@
       <c r="M40" s="1">
         <v>0.001009099884</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="2">
         <v>4.44789788e-5</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="2">
         <v>7.577164774e-5</v>
       </c>
       <c r="P40" s="1">
@@ -3040,7 +3037,7 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3079,10 +3076,10 @@
       <c r="M41" s="1">
         <v>0.0006289114244</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="2">
         <v>3.40386223e-5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="2">
         <v>4.89846498e-5</v>
       </c>
       <c r="P41" s="1">
@@ -3090,7 +3087,7 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3129,10 +3126,10 @@
       <c r="M42" s="1">
         <v>0.0004479411291</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="2">
         <v>3.42489102e-5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="2">
         <v>3.415228036e-5</v>
       </c>
       <c r="P42" s="1">
@@ -3140,7 +3137,7 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3179,10 +3176,10 @@
       <c r="M43" s="1">
         <v>0.0002984419989</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="2">
         <v>2.097497229e-5</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="2">
         <v>2.498372587e-5</v>
       </c>
       <c r="P43" s="1">
@@ -3190,7 +3187,7 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3229,10 +3226,10 @@
       <c r="M44" s="1">
         <v>0.000185545985</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="2">
         <v>2.186156564e-6</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="2">
         <v>2.000300336e-5</v>
       </c>
       <c r="P44" s="1">
@@ -3240,7 +3237,7 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3279,10 +3276,10 @@
       <c r="M45" s="1">
         <v>0.0001033102671</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="2">
         <v>1.603129511e-6</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="2">
         <v>1.106613951e-5</v>
       </c>
       <c r="P45" s="1">
@@ -3290,7 +3287,7 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3326,13 +3323,13 @@
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
         <v>6.20023493e-5</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="2">
         <v>1.301764757e-6</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="2">
         <v>6.64141788e-6</v>
       </c>
       <c r="P46" s="1">
@@ -3340,7 +3337,7 @@
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3376,13 +3373,13 @@
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <v>3.953805572e-5</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="2">
         <v>1.247215294e-6</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="2">
         <v>4.217803888e-6</v>
       </c>
       <c r="P47" s="1">
@@ -3390,7 +3387,7 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3426,13 +3423,13 @@
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
         <v>2.503164978e-5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="2">
         <v>1.098745281e-6</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="2">
         <v>2.670302839e-6</v>
       </c>
       <c r="P48" s="1">
@@ -3440,7 +3437,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3476,13 +3473,13 @@
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <v>1.650645754e-5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="2">
         <v>7.041204471e-7</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="2">
         <v>1.760860503e-6</v>
       </c>
       <c r="P49" s="1">
@@ -3490,7 +3487,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3526,13 +3523,13 @@
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>1.19159231e-5</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="2">
         <v>5.426866766e-7</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="2">
         <v>1.288939214e-6</v>
       </c>
       <c r="P50" s="1">
@@ -3540,7 +3537,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3576,13 +3573,13 @@
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <v>7.654153706e-6</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="2">
         <v>4.302148895e-7</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="2">
         <v>8.279458402e-7</v>
       </c>
       <c r="P51" s="1">
@@ -3590,7 +3587,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3626,13 +3623,13 @@
       <c r="L52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <v>5.38226459e-6</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="2">
         <v>3.39698295e-7</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="2">
         <v>5.821967858e-7</v>
       </c>
       <c r="P52" s="1">
@@ -3640,7 +3637,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3676,13 +3673,13 @@
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <v>3.784873343e-6</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="2">
         <v>2.28478973e-7</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="2">
         <v>4.09407817e-7</v>
       </c>
       <c r="P53" s="1">
@@ -3690,7 +3687,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3726,13 +3723,13 @@
       <c r="L54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="2">
         <v>2.39490555e-6</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="2">
         <v>1.795279617e-7</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="2">
         <v>2.590556965e-7</v>
       </c>
       <c r="P54" s="1">

--- a/pp_hadron/expdata/20002.xlsx
+++ b/pp_hadron/expdata/20002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17540"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>kaon_+-</t>
   </si>
   <si>
-    <t>dN/N_inel-dy-dpT</t>
+    <t>d2N/N_inel-dy-dpt</t>
   </si>
   <si>
     <t>pb</t>
@@ -83,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,23 +104,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,11 +127,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,22 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +195,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -226,14 +217,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +254,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,13 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,55 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,79 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,15 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,7 +461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +481,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -501,17 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,156 +539,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,7 +1023,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/pp_hadron/expdata/20002.xlsx
+++ b/pp_hadron/expdata/20002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView windowHeight="17960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>kaon_+-</t>
   </si>
   <si>
-    <t>d2N/N_inel-dy-dpt</t>
+    <t>d2N/N_vis-dy-dpt</t>
   </si>
   <si>
     <t>pb</t>
@@ -81,24 +81,92 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -106,7 +174,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -114,111 +211,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -226,15 +219,22 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -248,7 +248,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +344,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,145 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,56 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,6 +475,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -539,153 +498,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,55 +701,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1023,15 +1023,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="10.5625" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="13" max="15" width="12.6875"/>
+    <col min="4" max="4" width="10.5673076923077" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="13" max="15" width="12.6923076923077"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
